--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>bad</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -491,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -610,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -660,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9326923076923077</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -828,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -878,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -910,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,16 +940,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.4666666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -960,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.075591985428051</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L11">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1015</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1028,7 +1037,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>0.07741347905282331</v>
+      </c>
+      <c r="L12">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1054,7 +1087,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0.03180212014134275</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1062,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1080,7 +1137,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1088,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5289855072463768</v>
+        <v>0.525</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1106,7 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0.01461038961038961</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4893617021276596</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1132,7 +1237,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>0.01280409731113956</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1166,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4230769230769231</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1184,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1192,13 +1321,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.391304347826087</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1210,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1218,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1236,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1244,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3214285714285715</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1262,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1289,58 +1418,6 @@
       </c>
       <c r="H22">
         <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
